--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module4_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module4_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985BE095-972A-4A11-AFDC-3A29480372B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428A5708-C467-4A46-9049-98D252EA6BB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,6 +1001,24 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1039,24 +1057,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1329,123 +1329,6 @@
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>43598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43599</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43603</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43604</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43605</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43606</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43607</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43608</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43609</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43610</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43611</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43591</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43592</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43593</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43596</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43597</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43598</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43603</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43606</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43610</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43591</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43592</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43593</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43596</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43597</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43598</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43603</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43606</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43610</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43598</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43599</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43600</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43603</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43604</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43605</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43606</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43607</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43610</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3068,125 +2951,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>47</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5116,18 +4882,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
@@ -5146,16 +4912,16 @@
       <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="34"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
@@ -5174,24 +4940,24 @@
       <c r="Z2" s="34"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="37"/>
       <c r="L3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="65"/>
+      <c r="N3" s="71"/>
       <c r="O3" s="39"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
@@ -5206,24 +4972,24 @@
       <c r="Z3" s="34"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="37"/>
       <c r="L4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="65"/>
+      <c r="N4" s="71"/>
       <c r="O4" s="39"/>
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
@@ -5238,24 +5004,24 @@
       <c r="Z4" s="34"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="37"/>
       <c r="L5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="65"/>
+      <c r="N5" s="71"/>
       <c r="O5" s="39"/>
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
@@ -5270,24 +5036,24 @@
       <c r="Z5" s="34"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69"/>
       <c r="K6" s="37"/>
       <c r="L6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="64" t="s">
+      <c r="M6" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="65"/>
+      <c r="N6" s="71"/>
       <c r="O6" s="39"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -5302,24 +5068,24 @@
       <c r="Z6" s="34"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="37"/>
       <c r="L7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="66">
+      <c r="M7" s="72">
         <v>43559</v>
       </c>
-      <c r="N7" s="67"/>
+      <c r="N7" s="73"/>
       <c r="O7" s="39"/>
       <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
@@ -5334,16 +5100,16 @@
       <c r="Z7" s="34"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="34"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
@@ -5362,16 +5128,16 @@
       <c r="Z8" s="34"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="34"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -5390,16 +5156,16 @@
       <c r="Z9" s="34"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
       <c r="K10" s="34"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
@@ -5418,23 +5184,23 @@
       <c r="Z10" s="34"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="37"/>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="70"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
@@ -5448,16 +5214,16 @@
       <c r="Z11" s="34"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
       <c r="K12" s="37"/>
       <c r="L12" s="42" t="s">
         <v>33</v>
@@ -5484,16 +5250,16 @@
       <c r="Z12" s="34"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="37"/>
       <c r="L13" s="43" t="s">
         <v>37</v>
@@ -5520,16 +5286,16 @@
       <c r="Z13" s="34"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="63"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="37"/>
       <c r="L14" s="47"/>
       <c r="M14" s="48"/>
@@ -5548,16 +5314,16 @@
       <c r="Z14" s="34"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="63"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="37"/>
       <c r="L15" s="47"/>
       <c r="M15" s="48"/>
@@ -5576,16 +5342,16 @@
       <c r="Z15" s="34"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
       <c r="K16" s="37"/>
       <c r="L16" s="49"/>
       <c r="M16" s="50"/>
@@ -5604,16 +5370,16 @@
       <c r="Z16" s="34"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="63"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="37"/>
       <c r="L17" s="49"/>
       <c r="M17" s="50"/>
@@ -5632,16 +5398,16 @@
       <c r="Z17" s="34"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="63"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
       <c r="K18" s="37"/>
       <c r="L18" s="49"/>
       <c r="M18" s="50"/>
@@ -5660,16 +5426,16 @@
       <c r="Z18" s="34"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
       <c r="K19" s="37"/>
       <c r="L19" s="49"/>
       <c r="M19" s="50"/>
@@ -5688,16 +5454,16 @@
       <c r="Z19" s="34"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
       <c r="K20" s="37"/>
       <c r="L20" s="49"/>
       <c r="M20" s="50"/>
@@ -33176,13 +32942,13 @@
   </sheetPr>
   <dimension ref="A2:T110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F42" sqref="D4:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="71"/>
+    <col min="1" max="1" width="11" style="58"/>
     <col min="2" max="2" width="77" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.75" style="3" customWidth="1"/>
@@ -33200,7 +32966,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="62" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -33232,25 +32998,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="76">
+      <c r="A4" s="63">
         <v>1</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="59" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="10">
-        <v>43598</v>
-      </c>
-      <c r="E4" s="10">
-        <v>43599</v>
-      </c>
-      <c r="F4" s="23">
-        <f t="shared" ref="F4:F42" si="0">E4-D4</f>
-        <v>1</v>
-      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="11"/>
       <c r="H4" s="22">
         <v>10</v>
@@ -33261,25 +33020,18 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="76">
+      <c r="A5" s="63">
         <v>2</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="59" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10">
-        <v>43599</v>
-      </c>
-      <c r="E5" s="10">
-        <v>43600</v>
-      </c>
-      <c r="F5" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="11"/>
       <c r="H5" s="22">
         <v>10</v>
@@ -33290,25 +33042,18 @@
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="76">
+      <c r="A6" s="63">
         <v>3</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="59" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10">
-        <v>43600</v>
-      </c>
-      <c r="E6" s="10">
-        <v>43601</v>
-      </c>
-      <c r="F6" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="11"/>
       <c r="H6" s="22">
         <v>10</v>
@@ -33319,25 +33064,18 @@
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="76">
+      <c r="A7" s="63">
         <v>4</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="59" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10">
-        <v>43603</v>
-      </c>
-      <c r="E7" s="10">
-        <v>43604</v>
-      </c>
-      <c r="F7" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="11"/>
       <c r="H7" s="22">
         <v>10</v>
@@ -33348,25 +33086,18 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="76">
+      <c r="A8" s="63">
         <v>5</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="59" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10">
-        <v>43604</v>
-      </c>
-      <c r="E8" s="10">
-        <v>43605</v>
-      </c>
-      <c r="F8" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="11"/>
       <c r="H8" s="22">
         <v>10</v>
@@ -33377,25 +33108,18 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="76">
+      <c r="A9" s="63">
         <v>6</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="59" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10">
-        <v>43605</v>
-      </c>
-      <c r="E9" s="10">
-        <v>43606</v>
-      </c>
-      <c r="F9" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="11"/>
       <c r="H9" s="22">
         <v>10</v>
@@ -33406,25 +33130,18 @@
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="76">
+      <c r="A10" s="63">
         <v>7</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="59" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="10">
-        <v>43606</v>
-      </c>
-      <c r="E10" s="10">
-        <v>43607</v>
-      </c>
-      <c r="F10" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="11"/>
       <c r="H10" s="22">
         <v>10</v>
@@ -33435,25 +33152,18 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="76">
+      <c r="A11" s="63">
         <v>8</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="59" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="10">
-        <v>43607</v>
-      </c>
-      <c r="E11" s="10">
-        <v>43608</v>
-      </c>
-      <c r="F11" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="11"/>
       <c r="H11" s="22">
         <v>10</v>
@@ -33464,25 +33174,18 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="76">
+      <c r="A12" s="63">
         <v>9</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="59" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="10">
-        <v>43608</v>
-      </c>
-      <c r="E12" s="10">
-        <v>43609</v>
-      </c>
-      <c r="F12" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="11"/>
       <c r="H12" s="22">
         <v>10</v>
@@ -33493,25 +33196,18 @@
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="76">
+      <c r="A13" s="63">
         <v>10</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="59" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="10">
-        <v>43609</v>
-      </c>
-      <c r="E13" s="10">
-        <v>43610</v>
-      </c>
-      <c r="F13" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="11"/>
       <c r="H13" s="22">
         <v>15</v>
@@ -33522,25 +33218,18 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A14" s="76">
+      <c r="A14" s="63">
         <v>11</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="59" t="s">
         <v>80</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="10">
-        <v>43610</v>
-      </c>
-      <c r="E14" s="10">
-        <v>43611</v>
-      </c>
-      <c r="F14" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="11"/>
       <c r="H14" s="22">
         <v>15</v>
@@ -33551,25 +33240,18 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A15" s="76">
+      <c r="A15" s="63">
         <v>12</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="59" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="10">
-        <v>43611</v>
-      </c>
-      <c r="E15" s="10">
-        <v>43612</v>
-      </c>
-      <c r="F15" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="11"/>
       <c r="H15" s="22">
         <v>15</v>
@@ -33580,25 +33262,18 @@
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A16" s="76">
+      <c r="A16" s="63">
         <v>13</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="60" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="10">
-        <v>43591</v>
-      </c>
-      <c r="E16" s="10">
-        <v>43592</v>
-      </c>
-      <c r="F16" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="11"/>
       <c r="H16" s="22">
         <v>15</v>
@@ -33609,25 +33284,18 @@
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A17" s="76">
+      <c r="A17" s="63">
         <v>14</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="60" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="10">
-        <v>43592</v>
-      </c>
-      <c r="E17" s="10">
-        <v>43593</v>
-      </c>
-      <c r="F17" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="11"/>
       <c r="H17" s="22">
         <v>15</v>
@@ -33638,25 +33306,18 @@
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A18" s="76">
+      <c r="A18" s="63">
         <v>15</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="60" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="10">
-        <v>43593</v>
-      </c>
-      <c r="E18" s="10">
-        <v>43594</v>
-      </c>
-      <c r="F18" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="11"/>
       <c r="H18" s="22">
         <v>15</v>
@@ -33667,25 +33328,18 @@
       <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A19" s="76">
+      <c r="A19" s="63">
         <v>16</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="60" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="10">
-        <v>43596</v>
-      </c>
-      <c r="E19" s="10">
-        <v>43597</v>
-      </c>
-      <c r="F19" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="11"/>
       <c r="H19" s="22">
         <v>15</v>
@@ -33696,25 +33350,18 @@
       <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A20" s="76">
+      <c r="A20" s="63">
         <v>17</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="60" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="10">
-        <v>43597</v>
-      </c>
-      <c r="E20" s="10">
-        <v>43598</v>
-      </c>
-      <c r="F20" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="11"/>
       <c r="H20" s="22">
         <v>15</v>
@@ -33725,25 +33372,18 @@
       <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A21" s="76">
+      <c r="A21" s="63">
         <v>18</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="60" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="10">
-        <v>43598</v>
-      </c>
-      <c r="E21" s="10">
-        <v>43600</v>
-      </c>
-      <c r="F21" s="23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="11"/>
       <c r="H21" s="22">
         <v>20</v>
@@ -33754,25 +33394,18 @@
       <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
-      <c r="A22" s="76">
+      <c r="A22" s="63">
         <v>19</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="60" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="10">
-        <v>43603</v>
-      </c>
-      <c r="E22" s="10">
-        <v>43605</v>
-      </c>
-      <c r="F22" s="23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="11"/>
       <c r="H22" s="22">
         <v>20</v>
@@ -33783,25 +33416,18 @@
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
-      <c r="A23" s="76">
+      <c r="A23" s="63">
         <v>20</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="60" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="10">
-        <v>43606</v>
-      </c>
-      <c r="E23" s="10">
-        <v>43608</v>
-      </c>
-      <c r="F23" s="23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="11"/>
       <c r="H23" s="22">
         <v>20</v>
@@ -33812,25 +33438,18 @@
       <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
-      <c r="A24" s="76">
+      <c r="A24" s="63">
         <v>21</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="60" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="10">
-        <v>43610</v>
-      </c>
-      <c r="E24" s="10">
-        <v>43612</v>
-      </c>
-      <c r="F24" s="23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="11"/>
       <c r="H24" s="22">
         <v>20</v>
@@ -33841,25 +33460,18 @@
       <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A25" s="76">
+      <c r="A25" s="63">
         <v>22</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="60" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="10">
-        <v>43591</v>
-      </c>
-      <c r="E25" s="10">
-        <v>43592</v>
-      </c>
-      <c r="F25" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="11"/>
       <c r="H25" s="22">
         <v>15</v>
@@ -33870,25 +33482,18 @@
       <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A26" s="76">
+      <c r="A26" s="63">
         <v>23</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="60" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="10">
-        <v>43592</v>
-      </c>
-      <c r="E26" s="10">
-        <v>43593</v>
-      </c>
-      <c r="F26" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="11"/>
       <c r="H26" s="22">
         <v>15</v>
@@ -33899,25 +33504,18 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A27" s="76">
+      <c r="A27" s="63">
         <v>24</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="60" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="10">
-        <v>43593</v>
-      </c>
-      <c r="E27" s="10">
-        <v>43594</v>
-      </c>
-      <c r="F27" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="11"/>
       <c r="H27" s="22">
         <v>15</v>
@@ -33928,25 +33526,18 @@
       <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A28" s="76">
+      <c r="A28" s="63">
         <v>25</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="60" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="10">
-        <v>43596</v>
-      </c>
-      <c r="E28" s="10">
-        <v>43597</v>
-      </c>
-      <c r="F28" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="11"/>
       <c r="H28" s="22">
         <v>15</v>
@@ -33957,25 +33548,18 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A29" s="76">
+      <c r="A29" s="63">
         <v>26</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="60" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="10">
-        <v>43597</v>
-      </c>
-      <c r="E29" s="10">
-        <v>43598</v>
-      </c>
-      <c r="F29" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="11"/>
       <c r="H29" s="22">
         <v>15</v>
@@ -33986,25 +33570,18 @@
       <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A30" s="76">
+      <c r="A30" s="63">
         <v>27</v>
       </c>
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="60" t="s">
         <v>65</v>
       </c>
       <c r="C30" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="10">
-        <v>43598</v>
-      </c>
-      <c r="E30" s="10">
-        <v>43600</v>
-      </c>
-      <c r="F30" s="23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="11"/>
       <c r="H30" s="22">
         <v>20</v>
@@ -34015,25 +33592,18 @@
       <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A31" s="76">
+      <c r="A31" s="63">
         <v>28</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="60" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="10">
-        <v>43603</v>
-      </c>
-      <c r="E31" s="10">
-        <v>43605</v>
-      </c>
-      <c r="F31" s="23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="11"/>
       <c r="H31" s="22">
         <v>20</v>
@@ -34044,25 +33614,18 @@
       <c r="J31" s="22"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
-      <c r="A32" s="76">
+      <c r="A32" s="63">
         <v>29</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="60" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="10">
-        <v>43606</v>
-      </c>
-      <c r="E32" s="10">
-        <v>43608</v>
-      </c>
-      <c r="F32" s="23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="11"/>
       <c r="H32" s="22">
         <v>20</v>
@@ -34073,25 +33636,18 @@
       <c r="J32" s="22"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
-      <c r="A33" s="76">
+      <c r="A33" s="63">
         <v>30</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="60" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="10">
-        <v>43610</v>
-      </c>
-      <c r="E33" s="10">
-        <v>43612</v>
-      </c>
-      <c r="F33" s="23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="11"/>
       <c r="H33" s="22">
         <v>20</v>
@@ -34102,25 +33658,18 @@
       <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
-      <c r="A34" s="76">
+      <c r="A34" s="63">
         <v>31</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="61" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="10">
-        <v>43598</v>
-      </c>
-      <c r="E34" s="10">
-        <v>43599</v>
-      </c>
-      <c r="F34" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="11"/>
       <c r="H34" s="22">
         <v>10</v>
@@ -34131,25 +33680,18 @@
       <c r="J34" s="22"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
-      <c r="A35" s="76">
+      <c r="A35" s="63">
         <v>32</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="61" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="10">
-        <v>43599</v>
-      </c>
-      <c r="E35" s="10">
-        <v>43600</v>
-      </c>
-      <c r="F35" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="23"/>
       <c r="G35" s="11"/>
       <c r="H35" s="22">
         <v>10</v>
@@ -34160,25 +33702,18 @@
       <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
-      <c r="A36" s="76">
+      <c r="A36" s="63">
         <v>33</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="61" t="s">
         <v>54</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="10">
-        <v>43600</v>
-      </c>
-      <c r="E36" s="10">
-        <v>43601</v>
-      </c>
-      <c r="F36" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="11"/>
       <c r="H36" s="22">
         <v>10</v>
@@ -34189,25 +33724,18 @@
       <c r="J36" s="22"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
-      <c r="A37" s="76">
+      <c r="A37" s="63">
         <v>34</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="61" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="10">
-        <v>43603</v>
-      </c>
-      <c r="E37" s="10">
-        <v>43604</v>
-      </c>
-      <c r="F37" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="11"/>
       <c r="H37" s="22">
         <v>10</v>
@@ -34218,25 +33746,18 @@
       <c r="J37" s="22"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
-      <c r="A38" s="76">
+      <c r="A38" s="63">
         <v>35</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="61" t="s">
         <v>62</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="10">
-        <v>43604</v>
-      </c>
-      <c r="E38" s="10">
-        <v>43605</v>
-      </c>
-      <c r="F38" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="11"/>
       <c r="H38" s="22">
         <v>10</v>
@@ -34247,25 +33768,18 @@
       <c r="J38" s="22"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="76">
+      <c r="A39" s="63">
         <v>36</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="61" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="10">
-        <v>43605</v>
-      </c>
-      <c r="E39" s="10">
-        <v>43606</v>
-      </c>
-      <c r="F39" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="11"/>
       <c r="H39" s="22">
         <v>10</v>
@@ -34276,25 +33790,18 @@
       <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
-      <c r="A40" s="76">
+      <c r="A40" s="63">
         <v>37</v>
       </c>
-      <c r="B40" s="74" t="s">
+      <c r="B40" s="61" t="s">
         <v>70</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="10">
-        <v>43606</v>
-      </c>
-      <c r="E40" s="10">
-        <v>43607</v>
-      </c>
-      <c r="F40" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="23"/>
       <c r="G40" s="11"/>
       <c r="H40" s="22">
         <v>10</v>
@@ -34305,25 +33812,18 @@
       <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1">
-      <c r="A41" s="76">
+      <c r="A41" s="63">
         <v>38</v>
       </c>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="61" t="s">
         <v>74</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="10">
-        <v>43607</v>
-      </c>
-      <c r="E41" s="10">
-        <v>43608</v>
-      </c>
-      <c r="F41" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="23"/>
       <c r="G41" s="11"/>
       <c r="H41" s="22">
         <v>10</v>
@@ -34334,25 +33834,18 @@
       <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1">
-      <c r="A42" s="76">
+      <c r="A42" s="63">
         <v>39</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="61" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="10">
-        <v>43610</v>
-      </c>
-      <c r="E42" s="10">
-        <v>43611</v>
-      </c>
-      <c r="F42" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="23"/>
       <c r="G42" s="11"/>
       <c r="H42" s="22">
         <v>10</v>
@@ -34372,7 +33865,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="24">
         <f>SUM(F4:F42)</f>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="24">
